--- a/medicine/Psychotrope/Château_de_Bosc_(Gard)/Château_de_Bosc_(Gard).xlsx
+++ b/medicine/Psychotrope/Château_de_Bosc_(Gard)/Château_de_Bosc_(Gard).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bosc_(Gard)</t>
+          <t>Château_de_Bosc_(Gard)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Bosc est une ancienne bâtisse du XIXe siècle, situé dans le Gard, commune de Domazan, entre Nîmes et Avignon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bosc_(Gard)</t>
+          <t>Château_de_Bosc_(Gard)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Site touristique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La particularité de ce domaine est la multiplicité des activités proposées : le musée du vélo et de la moto[1], les avions (Mirage 5 et Mig 17)[1], le musée des enfants et le jeu de piste, le parc de sculptures contemporaines[2]. Accessoirement, on[style à revoir] y produit un vin de garde sans sulfites[3],[4], élaboré par le viticulteur Guillaume Reynaud[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La particularité de ce domaine est la multiplicité des activités proposées : le musée du vélo et de la moto, les avions (Mirage 5 et Mig 17), le musée des enfants et le jeu de piste, le parc de sculptures contemporaines. Accessoirement, on[style à revoir] y produit un vin de garde sans sulfites élaboré par le viticulteur Guillaume Reynaud.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bosc_(Gard)</t>
+          <t>Château_de_Bosc_(Gard)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1870, A. Capieu-Massip achète un terrain sur le plateau de la commune de Domazan et fait construire un château[6]. Bien que le cadastre de 1818[6] ne fasse pas état de construction antérieure, les fondations d'une ancienne bâtisse ont été repérées.
-La sobriété de l'intérieur du château contraste avec les constructions réalisées sous Napoléon III. À la suite du décès d'A. Capieu-Massip à la fin des travaux, la famille n'a pas pu terminer le décor intérieur du château[7].
-D'une surface de 12 000 m2, le parc s'étend autour du château. Il abrite diverses espèces d'arbustes et d'arbres parmi lesquelles il est possible d'admirer des cèdres du Liban[8].
-Durant la construction du château, la famille Capieu-Massip a dessiné et réalisé le jardin. Progressivement à l'abandon, la famille Reynaud, propriétaire des lieux, demande au paysagiste Patrice Gonfond de dessiner un jardin à la française en 2001[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1870, A. Capieu-Massip achète un terrain sur le plateau de la commune de Domazan et fait construire un château. Bien que le cadastre de 1818 ne fasse pas état de construction antérieure, les fondations d'une ancienne bâtisse ont été repérées.
+La sobriété de l'intérieur du château contraste avec les constructions réalisées sous Napoléon III. À la suite du décès d'A. Capieu-Massip à la fin des travaux, la famille n'a pas pu terminer le décor intérieur du château.
+D'une surface de 12 000 m2, le parc s'étend autour du château. Il abrite diverses espèces d'arbustes et d'arbres parmi lesquelles il est possible d'admirer des cèdres du Liban.
+Durant la construction du château, la famille Capieu-Massip a dessiné et réalisé le jardin. Progressivement à l'abandon, la famille Reynaud, propriétaire des lieux, demande au paysagiste Patrice Gonfond de dessiner un jardin à la française en 2001.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Bosc_(Gard)</t>
+          <t>Château_de_Bosc_(Gard)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Draisienne : objet classé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus d'abriter de nombreux vélos de collection, le château de Bosc expose une draisienne zoomorphe[9],[10], classée objet des Monuments historiques le 15 octobre 2010. Elle a été fabriquée par le compagnon charron Urbain Alexandre dans les années 1820-1825.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus d'abriter de nombreux vélos de collection, le château de Bosc expose une draisienne zoomorphe classée objet des Monuments historiques le 15 octobre 2010. Elle a été fabriquée par le compagnon charron Urbain Alexandre dans les années 1820-1825.
 </t>
         </is>
       </c>
